--- a/lession2/task1/report.xlsx
+++ b/lession2/task1/report.xlsx
@@ -396,24 +396,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Инженер оборудования связи</t>
+          <t>Слесарь-электрик</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-oborudovaniya-svyazi-26809797.html</t>
+          <t>http://www.superjob.ru/vakansii/slesar-elektrik-32010631.html</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
+          <t>22000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -423,22 +419,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Инженер-проектировщик по сетям (КЛ, ВЛ, ЭС, ЭОМ)</t>
+          <t>Мастер на час / электрик / сантехник</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-proektirovschik-po-setyam-32431880.html</t>
+          <t>http://www.superjob.ru/vakansii/master-na-chas-32478148.html</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>95500</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>110000</t>
+          <t>120000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -450,24 +446,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Сервисный инженер (ремонт бытовой техники)</t>
+          <t>Сантехник, электрик</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/servisnyj-inzhener-32451275.html</t>
+          <t>http://www.superjob.ru/vakansii/santehnik-32097985.html</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>65000</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>95000</t>
-        </is>
-      </c>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -477,17 +469,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Инженер по охране труда</t>
+          <t>Техник-электрик</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-ohrane-truda-32108864.html</t>
+          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-32499248.html</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>52200</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -500,17 +492,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Инженер по ремонту стиральных и посудомоечных машин</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-remontu-stiralnyh-i-posudomoechnyh-mashin-30621555.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32062203.html</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -523,24 +515,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Сервисный инженер по ремонту ноутбуков</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/servisnyj-inzhener-po-remontu-noutbukov-31907700.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-32492391.html</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -550,17 +538,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Инженер-сметчик</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-smetchik-32408515.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32353599.html</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>44300</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -573,12 +561,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Инженер-эколог</t>
+          <t>Инженер-электрик (испытания и измерения)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-ekolog-30114074.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-30112453.html</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -588,7 +576,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -600,17 +588,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Комплексный главный инженер проекта /ГИП (Социальные объекты)</t>
+          <t>Дежурный электрик, электрик</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/kompleksnyj-glavnyj-inzhener-proekta-32531735.html</t>
+          <t>http://www.superjob.ru/vakansii/dezhurnyj-elektrik-32498554.html</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -623,17 +611,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Инженер по эксплуатации базовых станций</t>
+          <t>Слесарь-электрик</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-ekspluatacii-bazovyh-stancij-32451122.html</t>
+          <t>http://www.superjob.ru/vakansii/slesar-elektrik-31881041.html</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -646,17 +634,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ведущий инженер ПТО</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/veduschij-inzhener-pto-32266043.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-31998342.html</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -669,24 +657,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Инженер технической поддержки (информационная безопасность)</t>
+          <t>Сантехник-электрик</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-tehnicheskoj-podderzhki-32408466.html</t>
+          <t>http://www.superjob.ru/vakansii/santehnik-elektrik-32505455.html</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>70000</t>
-        </is>
-      </c>
+          <t>85000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -696,17 +680,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Инженер-технолог по механической обработке</t>
+          <t>Электромонтажник / Электрик-универсал</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-tehnolog-po-mehanicheskoj-obrabotke-32274760.html</t>
+          <t>http://www.superjob.ru/vakansii/elektromontazhnik-32041988.html</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -719,12 +703,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Инженер / Ассистент инженера</t>
+          <t>Инженер-электрик (ежедневные выплаты)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-32198209.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-30436273.html</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -732,7 +716,11 @@
           <t>85000</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -742,22 +730,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Сервисный инженер по ремонту компьютеров</t>
+          <t>Мастер на час / Сантехник / Электрик</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/servisnyj-inzhener-po-remontu-kompyuterov-32451107.html</t>
+          <t>http://www.superjob.ru/vakansii/master-na-chas-32152447.html</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>120000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -769,22 +757,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Сервисный инженер / Мастер-наладчик</t>
+          <t>Техник (электрик) по эксплуатации зданий</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/servisnyj-inzhener-32462095.html</t>
+          <t>http://www.superjob.ru/vakansii/tehnik-26251717.html</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -796,17 +784,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Инженер-конструктор</t>
+          <t>Дежурный электрик</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-konstruktor-32165714.html</t>
+          <t>http://www.superjob.ru/vakansii/dezhurnyj-elektrik-31360400.html</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>56000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -819,17 +807,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Инженер КИПиА</t>
+          <t>Электрик (ЮВАО)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-kipia-32499206.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32274287.html</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -842,24 +830,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Инженер цеха упаковки</t>
+          <t>Сантехник-электрик / Отделочник</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-ceha-upakovki-32462090.html</t>
+          <t>http://www.superjob.ru/vakansii/santehnik-elektrik-32407033.html</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>70000</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>85000</t>
-        </is>
-      </c>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -869,22 +853,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Инженер слаботочных систем (Волгоградский проспект)</t>
+          <t>Инженер-электрик в ПТО</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-slabotochnyh-sistem-32438715.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-v-pto-32530223.html</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -896,17 +880,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Инженер-техник</t>
+          <t>Электрик / Электромонтер</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-tehnik-32403272.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32466628.html</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -919,17 +903,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Инженер-строитель</t>
+          <t>Электрик по ремонту башенных кранов</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-stroitel-31981754.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-po-remontu-bashennyh-kranov-28660513.html</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -942,17 +926,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Инженер дежурной смены сервисной службы</t>
+          <t>Электрик, электромонтер, техник по эксплуатации в электролабораторию по испытанию СИЗ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-dezhurnoj-smeny-servisnoj-sluzhby-32461992.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32375962.html</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -965,17 +949,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ведущий инженер-конструктор (центробежные насосы для атомной промышленности)</t>
+          <t>Электрик в сеть магазинов Декатлон</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/veduschij-inzhener-konstruktor-32531647.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-v-set-magazinov-dekatlon-31264498.html</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>57500</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -988,17 +972,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Инженер-проектировщик (пожаротушение)</t>
+          <t>Мастер квартирного ремонта / Электрик</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-proektirovschik-27578773.html</t>
+          <t>http://www.superjob.ru/vakansii/master-kvartirnogo-remonta-32038435.html</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1011,17 +995,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Инженер-радиотехник / Руководитель проектов: ЗССС, VSAT, подвижная связь</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-radiotehnik-31535520.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-31177520.html</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1034,17 +1018,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Инженер по охране труда (строительная компания)</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-ohrane-truda-32303578.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-31785077.html</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1057,24 +1041,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Инженер-сметчик</t>
+          <t>Техник-электрик</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-smetchik-32482602.html</t>
+          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-30212631.html</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>70000</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>75000</t>
-        </is>
-      </c>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1084,24 +1064,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Инженер-проектировщик</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-proektirovschik-32438582.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-30132832.html</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1111,17 +1087,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Инженер по техническому ремонту аппаратов воды</t>
+          <t>Мастер по ремонту (сантехник, электрик)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-tehnicheskomu-remontu-apparatov-vody-32461824.html</t>
+          <t>http://www.superjob.ru/vakansii/master-po-remontu-32111685.html</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1134,24 +1110,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Инженер-сметчик</t>
+          <t>Слесарь-электрик</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-smetchik-32438580.html</t>
+          <t>http://www.superjob.ru/vakansii/slesar-elektrik-25931728.html</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1161,17 +1133,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ведущий инженер-механик</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/veduschij-inzhener-mehanik-29597258.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32150429.html</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1184,24 +1156,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Инженер технического надзора</t>
+          <t>Электрик / Электромонтер</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-tehnicheskogo-nadzora-32531544.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32433354.html</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1211,17 +1179,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Инженер-сметчик</t>
+          <t>Отделочник-электрик</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-smetchik-32444805.html</t>
+          <t>http://www.superjob.ru/vakansii/otdelochnik-elektrik-32033973.html</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1234,17 +1202,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Инженер по холодильному оборудованию</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-holodilnomu-oborudovaniyu-32519865.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-31826473.html</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1257,20 +1225,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ведущий инженер Команда МТС ТВ</t>
+          <t>Электрик стирального оборудования / Помощник</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/veduschij-inzhener-komanda-mts-tv-32387278.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-stiralnogo-oborudovaniya-32154950.html</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>110000</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>79000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1280,20 +1252,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ведущий инженер-сметчик</t>
+          <t>Электрик (на строительный объект)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/veduschij-inzhener-smetchik-32444772.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32527853.html</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1303,12 +1279,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Электрик / Электромеханик</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-32492391.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32467379.html</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1326,12 +1302,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Сервисный инженер по ремонту стиральных и посудомоечных машин</t>
+          <t>Мастер-универсал (сантехник / электрик)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/servisnyj-inzhener-po-remontu-stiralnyh-i-posudomoechnyh-mashin-30436889.html</t>
+          <t>http://www.superjob.ru/vakansii/master-universal-32150433.html</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1339,11 +1315,7 @@
           <t>80000</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>140000</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1353,24 +1325,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Инженер-сметчик / Ведущий инженер-сметчик</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-smetchik-32468498.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32140432.html</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>70000</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>90000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1380,24 +1348,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Инженер по экологической безопасности</t>
+          <t>Сантехник / Электрик</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-ekologicheskoj-bezopasnosti-32498690.html</t>
+          <t>http://www.superjob.ru/vakansii/santehnik-32362086.html</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20000</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1407,24 +1371,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Инженер по ремонту оргтехники</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-remontu-orgtehniki-32408183.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32051785.html</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>45000</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1434,17 +1394,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Инженер (информационная безопасность)</t>
+          <t>Электрик-монтажник</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-32408131.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-montazhnik-31708568.html</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1457,20 +1417,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Инженер КИПиА</t>
+          <t>Электрик / Электромонтажник</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-kipia-32469023.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-11856166.html</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>53250</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1480,17 +1444,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Инженер ГО</t>
+          <t>Электрик-сантехник</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-go-30344109.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-santehnik-32408214.html</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1503,20 +1467,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Инженер-технолог</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-tehnolog-30860401.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-26340322.html</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1526,22 +1494,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Инженер-электрик (испытания и измерения)</t>
+          <t>Электрик, сантехник</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-30112453.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-27239097.html</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1553,17 +1521,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Инженер Лаборатории специальных проверок</t>
+          <t>Отделочник-универсал, электрик</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-laboratorii-specialnyh-proverok-31705530.html</t>
+          <t>http://www.superjob.ru/vakansii/otdelochnik-universal-28012413.html</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1576,20 +1544,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ведущий инженер лаборатории специальных исследований</t>
+          <t>Электрик по обслуживанию мостовых, козловых, башенных и автомобильных кранов</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/veduschij-inzhener-laboratorii-specialnyh-issledovanij-31350665.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-po-obsluzhivaniyu-mostovyh-26356659.html</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1599,20 +1571,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Дата-инженер (лид)</t>
+          <t>Техник-электрик (Лобня)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/data-inzhener-32419632.html</t>
+          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-31943117.html</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>34000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1622,17 +1598,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Инженер-теплотехник</t>
+          <t>Техник-электрик</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-teplotehnik-32505768.html</t>
+          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-31028081.html</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>57400</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1645,12 +1621,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ученик / Стажёр инженера по ремонту бытового оборудования</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/uchenik-32482455.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32401323.html</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1658,11 +1634,7 @@
           <t>60000</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>120000</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1672,20 +1644,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Помощник по хозяйству / Инженер по эксплуатации загородного дома</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/pomoschnik-po-hozyajstvu-32519694.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-30429379.html</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>22000</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1695,17 +1671,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Инженер/Механик по холодильному оборудованию</t>
+          <t>Электрик (м. Митино)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-29959726.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32351870.html</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>39150</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -1718,24 +1694,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-32482401.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-32405892.html</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>85000</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>115000</t>
-        </is>
-      </c>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1745,17 +1717,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Инженер-программист / Разработчик C#</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-programmist-32498502.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32489396.html</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>300000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -1768,17 +1740,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Инженер по обслуживанию кофейного оборудования</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-obsluzhivaniyu-kofejnogo-oborudovaniya-32334443.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-29754708.html</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>36700</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -1791,20 +1763,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Инженер по технологическому оборудованию фаст-фуд</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-tehnologicheskomu-oborudovaniyu-fast-fud-32335656.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32521685.html</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1814,17 +1790,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Инженер КИПиА</t>
+          <t>Автослесарь-электрик</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-kipia-32444432.html</t>
+          <t>http://www.superjob.ru/vakansii/avtoslesar-elektrik-32211284.html</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>47850</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -1837,17 +1813,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Сервисный инженер</t>
+          <t>Дежурный электрик (Сколково)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/servisnyj-inzhener-32531215.html</t>
+          <t>http://www.superjob.ru/vakansii/dezhurnyj-elektrik-32520876.html</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -1860,24 +1836,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Главный инженер по эксплуатации зданий и сооружений</t>
+          <t>Электрик ЖКХ (Чертаново)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/glavnyj-inzhener-po-ekspluatacii-zdanij-i-sooruzhenij-32490131.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-zhkh-32348685.html</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>70000</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>90000</t>
-        </is>
-      </c>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1887,12 +1859,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Инженер по эксплуатации загородного дома (Новая Рига)</t>
+          <t>Электрик (на строительную площадку)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-ekspluatacii-zagorodnogo-doma-30562561.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32487377.html</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1910,24 +1882,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Инженер ПТО / Сметчик</t>
+          <t>Электрик-сантехник</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-pto-32438118.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-santehnik-32487270.html</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1937,20 +1905,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ведущий инженер по качеству</t>
+          <t>Электрик, электромонтер</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/veduschij-inzhener-po-kachestvu-28302551.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-24889985.html</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1960,20 +1932,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Инженер-технолог по механической обработке металлов</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-tehnolog-po-mehanicheskoj-obrabotke-metallov-30172400.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-32363027.html</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1983,20 +1959,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Главный инженер ГПМ (башенные краны)</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/glavnyj-inzhener-gpm-31861169.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-31818258.html</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>36000</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2006,20 +1986,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ведущий инженер ПТО</t>
+          <t>Электромонтажник / Электрик</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/veduschij-inzhener-pto-32023278.html</t>
+          <t>http://www.superjob.ru/vakansii/elektromontazhnik-32125314.html</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2029,20 +2013,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ведущий инженер по качеству (молочное производство)</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/veduschij-inzhener-po-kachestvu-31981827.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-31593898.html</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>87500</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2052,22 +2040,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ведущий инженер-проектировщик ЭОМ (REVIT, Электроснабжение и освещение)</t>
+          <t>Слесарь-электрик по ремонту электрооборудования (депо Нахабино)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/veduschij-inzhener-proektirovschik-eom-32438035.html</t>
+          <t>http://www.superjob.ru/vakansii/slesar-elektrik-po-remontu-elektrooborudovaniya-32424885.html</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>160000</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2079,20 +2067,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Инженер слаботочных систем</t>
+          <t>Слесарь-электрик по ремонту электрооборудования</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-slabotochnyh-sistem-32335009.html</t>
+          <t>http://www.superjob.ru/vakansii/slesar-elektrik-po-remontu-elektrooborudovaniya-32518692.html</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2102,20 +2094,24 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Электрик, электромонтер</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-31776048.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32442629.html</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2125,24 +2121,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Заместитель главного инженера</t>
+          <t>Электрик компрессорного цеха</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/zamestitel-glavnogo-inzhenera-31899413.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-kompressornogo-ceha-31798747.html</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>55000</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>75000</t>
-        </is>
-      </c>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2152,24 +2144,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Инженер-разработчик радиоэлектронной аппаратуры</t>
+          <t>Техник-электрик по эксплуатации (разъездной)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-razrabotchik-radioelektronnoj-apparatury-32505350.html</t>
+          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-po-ekspluatacii-29942376.html</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2179,17 +2167,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Инженер-лаборант в лабораторию антибиотиков (ВЭЖХ)</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-laborant-v-laboratoriyu-antibiotikov-32146355.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32399179.html</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>58600</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -2202,20 +2190,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Инженер-конструктор одежды</t>
+          <t>Техник-электрик (м. шоссе Энтузиастов)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-konstruktor-odezhdy-32372269.html</t>
+          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-29854860.html</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2225,17 +2217,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Инженер по ИССО (Инженер по искусственным сооружениям)</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-isso-32215839.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32324223.html</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -2248,17 +2240,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Инженер-геодезист (наружные инженерные сети водопровод, канализация, водосток, теплосеть)</t>
+          <t>Электрик-универсал / Техник-электрик</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-geodezist-32407658.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-universal-32433126.html</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -2271,20 +2263,24 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Инженер-разработчик (JavaScript Front-End Developer)</t>
+          <t>Электрик / Электромонтер</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-razrabotchik-32450218.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-31444604.html</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>150000</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2294,24 +2290,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Инженер по техническому надзору ЭОМ и СС</t>
+          <t>Инженер КИПиА, электрик</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-tehnicheskomu-nadzoru-eom-i-ss-32059284.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-kipia-30772556.html</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>120000</t>
-        </is>
-      </c>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2321,20 +2313,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Инженер ПТО</t>
+          <t>Электромеханик, электрик, электромонтер на пищевое производство (г. Люберцы)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-pto-11918791.html</t>
+          <t>http://www.superjob.ru/vakansii/elektromehanik-12228202.html</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>79000</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2344,24 +2340,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Инженер ПТО (отдел электроснабжения)</t>
+          <t>Электромеханик / Электрик / Слесарь-механик</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-pto-32498116.html</t>
+          <t>http://www.superjob.ru/vakansii/elektromehanik-29190567.html</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
           <t>60000</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2371,17 +2363,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Инженер-технолог</t>
+          <t>Электромонтажник слаботочных систем / Электрик</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-tehnolog-28439755.html</t>
+          <t>http://www.superjob.ru/vakansii/elektromontazhnik-slabotochnyh-sistem-31776214.html</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>67000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -2394,22 +2386,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Инженер (пусконаладочный участок)</t>
+          <t>Электрик (служба эксплуатации)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-32327385.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-29436076.html</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>40500</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>76500</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2421,20 +2413,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Инженер ПТО (электромонтажные работы ВЛ, ТП, КТП, КЛ 10/0.4кВ)</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-pto-25944713.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-32448893.html</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2444,17 +2440,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Инженер-проектировщик ЭОМ</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-proektirovschik-eom-32467520.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-28744775.html</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -2467,24 +2463,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Инженер, электрик, проектировщик</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-32425186.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-32307207.html</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>45000</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>58000</t>
-        </is>
-      </c>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2494,17 +2486,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ведущий инженер-проектировщик ОВиК (промышленные объекты)</t>
+          <t>Инженер-электрик (обслуживание энергооборудования)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/veduschij-inzhener-proektirovschik-ovik-32113647.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-32416851.html</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -2517,24 +2509,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Проектировщик искусственных сооружений (Ведущий инженер по ИССО)</t>
+          <t>Электрик, электромонтер, электромонтажник</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/proektirovschik-iskusstvennyh-sooruzhenij-30225905.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32509118.html</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>90000</t>
-        </is>
-      </c>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2544,24 +2532,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Инженер-электрик (ежедневные выплаты)</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-30436273.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-32144340.html</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>85000</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>120000</t>
-        </is>
-      </c>
+          <t>28000</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2571,17 +2555,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Инженер-проектировщик</t>
+          <t>Электрик, электромонтер</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-proektirovschik-30499259.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-30681524.html</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -2594,24 +2578,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Инженер-проектировщик НВК</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-proektirovschik-nvk-32038928.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-28186244.html</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2621,17 +2601,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Сервисный инженер по работе с клиентами (с авто)</t>
+          <t>Электрик с функциями сантехника по обслуживанию БЦ</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/servisnyj-inzhener-po-rabote-s-klientami-32317316.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-s-funkciyami-santehnika-po-obsluzhivaniyu-bc-30926658.html</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -2644,12 +2624,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Инженер-конструктор ПГС</t>
+          <t>Электрик на своей машине</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-konstruktor-pgs-30897310.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-na-svoej-mashine-31310335.html</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2657,11 +2637,7 @@
           <t>60000</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2671,22 +2647,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Инженер холодильного оборудования / холодильных систем</t>
+          <t>Электромонтажник, электрик, электромонтер</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-holodilnogo-oborudovaniya-32358781.html</t>
+          <t>http://www.superjob.ru/vakansii/elektromontazhnik-28166022.html</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>120000</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>150000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2698,17 +2674,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Инженер по холодильным системам</t>
+          <t>Электрик, электромонтер (Одинцово)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-holodilnym-sistemam-32134163.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-31796722.html</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -2721,17 +2697,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Инженер-конструктор / Проектировщик (навесные вентилируемые фасады)</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-konstruktor-32218225.html</t>
+          <t>http://www.superjob.ru/vakansii/elektrik-28625752.html</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -2744,17 +2720,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Инженер по охране труда</t>
+          <t>Рабочий по ремонту и обслуживанию зданий (электрик)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-ohrane-truda-32221356.html</t>
+          <t>http://www.superjob.ru/vakansii/rabochij-po-remontu-i-obsluzhivaniyu-zdanij-32460551.html</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -2767,24 +2743,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Инженер по обслуживанию аппаратов питьевой воды</t>
+          <t>Электромонтер</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-po-obsluzhivaniyu-apparatov-pitevoj-vody-32391655.html</t>
+          <t>http://www.superjob.ru/vakansii/elektromonter-31987608.html</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
+          <t>22000</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2794,22 +2766,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Инженер-сметчик</t>
+          <t>Электромеханик (м. Тропарево)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-smetchik-27794101.html</t>
+          <t>http://www.superjob.ru/vakansii/elektromehanik-32462204.html</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>47000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2821,20 +2793,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Инженер-технолог по литью пластмасс (полиуретан)</t>
+          <t>Электромонтажник-сварщик</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-tehnolog-po-lityu-plastmass-32497796.html</t>
+          <t>http://www.superjob.ru/vakansii/elektromontazhnik-svarschik-31707611.html</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2844,24 +2820,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Техник-электрик</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32873494?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32953910?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>65000</t>
-        </is>
-      </c>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2871,24 +2843,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Инженер по эксплуатации зданий и сооружений</t>
+          <t>Инженер-электрик (технический надзор)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33319563?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33044782?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>90000</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>110000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2898,22 +2866,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Инженер технадзора (месторождение)</t>
+          <t>Монтажник - электрик</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33523834?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32884204?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>100000</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>120000</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -2925,20 +2893,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Дежурный электрик</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33044627?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>45000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33192797?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2948,20 +2916,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Монтажник электрик</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33322089?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32971052?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2971,12 +2943,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Электрик (электромонтажник) старший</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33447963?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33415956?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2994,22 +2966,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Инженер по эксплуатации</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33532116?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33519472?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>80500</t>
+          <t>57000</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>80500</t>
+          <t>57000</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3021,22 +2993,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Главный инженер</t>
+          <t>Инженер-электрик в ЖК Лайнер</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33529762?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33181147?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>87000</t>
+          <t>74700</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>87000</t>
+          <t>74700</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3048,22 +3020,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Инженер технического надзора</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33415067?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33007995?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>56000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>61000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3075,20 +3047,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Главный инженер проекта (ГИП)</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33154517?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33393725?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3098,20 +3074,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33517141?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33495674?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>52000</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3121,17 +3101,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Инженер по ремонту оргтехники</t>
+          <t>Электрик загородного дома</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33357841?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33504836?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -3144,20 +3124,24 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Инженер пусконаладочных работ</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33243844?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33199396?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3167,17 +3151,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Инженер-строитель</t>
+          <t>Дежурный электрик в генподрядную организацию</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33351165?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33300938?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -3190,24 +3174,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Главный инженер проекта</t>
+          <t>Техник-электрик</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33034090?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33033916?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>184000</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>184000</t>
-        </is>
-      </c>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3217,12 +3197,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Инженер по эксплуатации зданий</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33147891?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33509452?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3232,7 +3212,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3244,22 +3224,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Инженер-конструктор</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32733180?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33479834?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>110000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3271,20 +3251,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Инженер по техническому обслуживанию ВС CRJ-100/200 (за границей)</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33355542?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>350000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33492616?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3294,17 +3274,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Главный инженер проекта по электрике</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33139732?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33233217?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>110000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -3317,17 +3297,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Инженер-управляющий в многоквартирный дом</t>
+          <t>Производитель работ (электрика)</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33522130?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33419125?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -3340,17 +3320,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Инженер - конструтор</t>
+          <t>Электромонтажник слаботочных систем/Электрик</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32970437?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33325261?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -3363,24 +3343,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Заместитель главного инженера по ремонту (Харанорская ГРЭС)</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33017610?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/30184606?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>115000</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>144000</t>
-        </is>
-      </c>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3390,22 +3366,18 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Инженер по снабжению (месторождение)</t>
+          <t>Электрик (вахта)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33523860?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33531356?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>42000</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3417,22 +3389,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Главный инженер</t>
+          <t>Электрик (на строительный объект)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33533127?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33505607?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3444,20 +3416,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Сервисный инженер</t>
+          <t>Помощник - электрик монтажника холодильных камер</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33424557?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33192699?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3467,20 +3443,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ведущий Инженер-конструктор</t>
+          <t>Прораб по электрике</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33201799?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>120000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33308720?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3490,22 +3466,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Сервисный инженер (на выезде)</t>
+          <t>Слесарь-электрик</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33535195?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33235003?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3517,22 +3493,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Инженер электролаборатории</t>
+          <t>Техник по ремонту оборудования</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33521394?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33510947?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3544,20 +3520,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Инженер-конструктор (опыт работы со светопрозрачными конструкциями ОБЯЗАТЕЛЕН)</t>
+          <t>Техник-электрик</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33223183?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/32642816?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3567,24 +3543,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Инженер проекта</t>
+          <t>Техник-электрик</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33412694?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33499036?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>90000</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>140000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3594,20 +3566,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Инженер технического надзора</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33146989?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33278264?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3617,17 +3589,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Инженер-строитель</t>
+          <t>Коструктор-электрик</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33413624?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33007802?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -3640,20 +3612,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Инженер-химик, инженер</t>
+          <t>Главный энергетик</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32966201?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33517353?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3663,22 +3639,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Препресс-инженер/верстальщик</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33432923?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33057231?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3690,24 +3666,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Сервисный инженер</t>
+          <t>Мастер по ремонту квартир (внутренняя отделка)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33236316?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33227446?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>65000</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>120000</t>
-        </is>
-      </c>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3717,22 +3689,22 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ведущий инженер ПТО</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33254561?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32946449?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>46000</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3744,20 +3716,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Дежурный инженер</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33496285?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>56000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33465289?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3767,24 +3739,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Инженер-конструктор III категории</t>
+          <t>Инженер-управляющий в многоквартирный дом</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33430888?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33522130?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>38000</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>57000</t>
-        </is>
-      </c>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3794,22 +3762,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Инженер технического надзора</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/29333462?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33393427?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3821,20 +3789,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Дежурный электрик</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33137600?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33223287?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3844,24 +3812,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Инженер-конструктор / Инженер-проектировщик (Деревянные дома)</t>
+          <t>Техник-электрик</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33310544?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33488234?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>90000</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>120000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3871,24 +3835,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Инженер - координатор</t>
+          <t>Слесарь-электрик по ремонту и обслуживанию трамвайных вагонов</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33205037?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33508443?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>70000</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>150000</t>
-        </is>
-      </c>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3898,24 +3858,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Главный инженер проекта</t>
+          <t>Техник-электрик</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33318211?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33493983?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>90000</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>90000</t>
-        </is>
-      </c>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3925,12 +3881,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Инженер 2 категории (Помощник руководителя)</t>
+          <t>Сотрудник технической службы по эксплуатации здания</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33535356?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33408057?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3948,24 +3904,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Инженер по МТО</t>
+          <t>Электрик в фитнес-клуб</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33432509?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33520556?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>70000</t>
-        </is>
-      </c>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3975,22 +3927,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Старший инженер-строитель / Руководитель проекта в службе Заказчика</t>
+          <t>Специалист по ремонту холодильного оборудования / Электрик</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33207381?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32512116?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4002,17 +3954,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Инженер ПТО</t>
+          <t>Бригадир электромонтажников</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33323355?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33199936?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -4025,24 +3977,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Инженер отдела технического надзора (1 категория)</t>
+          <t>Техник-электрик по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/29690102?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33289578?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>85000</t>
-        </is>
-      </c>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4052,22 +4000,22 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Инженер ПТО</t>
+          <t>Инженер электрик</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33530122?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33026367?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4079,22 +4027,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Инженер АСКУЭ</t>
+          <t>Электрик (ТЦ "АРЕАЛ" м.Алтуфьево)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33124363?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33125208?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>50000</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>80000</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4106,20 +4054,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Инженер по продажам пневмо- и гидрооборудования</t>
+          <t>Техник-электрик</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33350187?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33334945?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4129,22 +4081,18 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Инженер-эксперт (ПК, ноутбуки, моноблоки)</t>
+          <t>Электрик / Электромеханик</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32968899?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>70000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33247587?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4156,17 +4104,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Сервисный инженер</t>
+          <t>Производитель электромонтажных работ</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33525800?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33447500?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -4179,12 +4127,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Инженер-эколог</t>
+          <t>Электрик в автосалон / специалист по обслуживанию зданий</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33526909?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33120702?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4194,7 +4142,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4206,17 +4154,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Дежурный инженер</t>
+          <t>Техник по эксплуатации здания (электрик)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33250130?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33520157?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>33600</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -4229,20 +4177,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Инженер по лабораторному оборудованию</t>
+          <t>Электромонтажник</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33433789?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33299771?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4252,24 +4204,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Инженер по сканированию</t>
+          <t>Электрик (электрослесарь, техник)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/25608100?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33452310?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4279,22 +4227,22 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Строительный эксперт / инженер по обследованию зданий и сооружений</t>
+          <t>Электрик по зданию (м. Коломенское)</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33433185?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32390342?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4306,12 +4254,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Главный инженер проектов/ГИП</t>
+          <t>Автоэлектрик</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33155391?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33404370?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4319,7 +4267,11 @@
           <t>100000</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4329,17 +4281,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Инженер технического надзора (отделка)</t>
+          <t>Инженер-электрик (энергетик)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33530833?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32615580?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -4352,12 +4304,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Инженер ЭТЛ (электролаборатория)</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33194040?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33464122?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4375,22 +4327,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Инженер-электрик (Сколково)</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33124970?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33492604?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4402,22 +4354,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Инженер по организации и нормированию труда</t>
+          <t>Монтажник/электрик-слаботочник</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33321522?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33088685?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>75000</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4429,12 +4381,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Сервисный инженер (медицинское оборудование)</t>
+          <t>Электромонтажник</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33253295?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32667315?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4442,11 +4394,7 @@
           <t>50000</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>70000</t>
-        </is>
-      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4456,18 +4404,22 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Инженер технического надзора</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33465870?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33304123?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4479,12 +4431,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Инженер-помощник</t>
+          <t>Электрик/Техник по обслуживанию зданий</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33412715?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33054757?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4502,18 +4454,18 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Инженер технического надзора</t>
+          <t>Сборщик электромонтажник</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33125220?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33077566?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>110000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4525,18 +4477,22 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Главный инженер (нефтедобыча)</t>
+          <t>Электрик-электромонтажник</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33093983?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33333025?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>300000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4548,17 +4504,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Инженер (1751)</t>
+          <t>Инженер технического надзора по электроснабжению, инженер-электрик</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32983630?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31615170?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -4571,22 +4527,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Инженер (Отопление) - Частного домостроения</t>
+          <t>Автоэлектрик - диагност / электрик</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32713662?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33124612?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4598,20 +4554,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Главный инженер проекта (комплексный)</t>
+          <t>Главный инженер по эксплуатации зданий</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33131845?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>170000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33459434?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4621,24 +4577,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Инженер 1 категории ПТС</t>
+          <t>Сервисный инженер</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33321088?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33424557?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>55000</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>65000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4648,22 +4600,18 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Инженер-конструктор (II категория)</t>
+          <t>Техник по эксплуатации здания</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33430875?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>45000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33503680?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>71000</t>
+          <t>37000</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4675,22 +4623,22 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Инженер-конструктор</t>
+          <t>Инженер электрик/Инженер КИПиА/Электромонтер</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32315870?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33394763?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4702,17 +4650,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Инженер по эксплуатации зданий</t>
+          <t>Слесарь-электрик</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33344766?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33531379?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -4725,20 +4673,24 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Инженер-конструктор</t>
+          <t>Электротехник спортивно-развлекательного центра</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33408744?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33464898?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>44000</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>44000</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4748,22 +4700,22 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Инженер по строительству и техническому надзору</t>
+          <t>Техник по эксплуатации</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33029130?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33348898?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4775,24 +4727,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Инженер</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33507097?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33453082?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4802,17 +4750,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Инженер по эксплуатации зданий</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32990147?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33456982?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -4825,22 +4773,18 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Инженер ОТК</t>
+          <t>Техник по эксплуатации и ремонту оборудования</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33227626?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>44000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33463605?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -4852,17 +4796,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Технический руководитель</t>
+          <t>Слесарь-электрик по ремонту электрооборудования (7 разряд)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33517681?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33042243?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -4875,17 +4819,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Сервисный инженер</t>
+          <t>Слесарь-электрик по ремонту электрооборудования (8 разряд)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33515635?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33042655?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -4898,20 +4842,24 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Видеоинженер/Инженер по видеооборудованию</t>
+          <t>Техник по эксплуатации зданий/хаусмастер</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33200212?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33521217?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4921,22 +4869,22 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Инженер пресейла</t>
+          <t>Автоэлектрик-диагност</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33046922?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33443301?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>140000</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -4948,17 +4896,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Главный инженер проекта</t>
+          <t>Слесарь-электрик по ремонту электрооборудования (5 разряд)</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33226759?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32907296?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>170000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
@@ -4971,24 +4919,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Ведущий инженер ПТО / Инженер ПТО (общестрой/отделка)</t>
+          <t>Электромонтажник</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33044260?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33489980?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>110000</t>
-        </is>
-      </c>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4998,24 +4942,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Инженер по эксплуатации</t>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования (6 разряда)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33467972?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33487987?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>74700</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>74700</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
           <t>HH</t>
@@ -5025,17 +4965,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Помощник инженера-сметчика</t>
+          <t>Техник по эксплуатации и ремонту здания</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33311356?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33506737?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
@@ -5048,12 +4988,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Инженер-метролог</t>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33527198?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33262088?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5063,7 +5003,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5075,17 +5015,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Инженер компрессорного оборудования</t>
+          <t>Инженер-электрик</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33206362?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33361951?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
@@ -5098,17 +5038,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Инженер по эксплуатации зданий</t>
+          <t>Специалист по эксплуатации помещений</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33472415?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33133739?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -5121,20 +5061,24 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Инженер АСУ</t>
+          <t>Сервисный инженер</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33524037?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33236316?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>HH</t>
@@ -5144,22 +5088,22 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Инженер ПТО</t>
+          <t>Техник по эксплуатации</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33349110?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/30751332?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>41760</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>41760</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5171,22 +5115,22 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Инженер-схемотехник</t>
+          <t>Дежурный электрик (2/2)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33302881?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32484189?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>110000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5198,20 +5142,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Сервисный инженер</t>
+          <t>Электрик</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33082381?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>75000</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33336127?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>42500</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
           <t>HH</t>
@@ -5221,17 +5165,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Дежурный инженер технической поддержки</t>
+          <t>Рабочий по обслуживанию зданий и сооружений</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33325202?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33412295?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -5244,22 +5188,22 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Инженер-метролог</t>
+          <t>Диагност-электрик</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33205915?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33511088?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>130000</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5271,17 +5215,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Сервисный инженер</t>
+          <t>Электромонтажник</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33035705?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33514597?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
@@ -5294,17 +5238,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Инженер-строитель</t>
+          <t>Проектный менеджер</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33517145?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33280493?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>66000</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -5317,20 +5261,24 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Технико-коммерческий инженер</t>
+          <t>Монтажник (монтировщик)</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33081884?query=%D0%B8%D0%BD%D0%B6%D0%B5%D0%BD%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33160974?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+          <t>42000</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>HH</t>

--- a/lession2/task1/report.xlsx
+++ b/lession2/task1/report.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,17 +396,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Слесарь-электрик</t>
+          <t>Экономист/Экономист по производству</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/slesar-elektrik-32010631.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32532160.html</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -419,24 +419,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Мастер на час / электрик / сантехник</t>
+          <t>Экономист по ценообразованию</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/master-na-chas-32478148.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-cenoobrazovaniyu-32184533.html</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>120000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -446,17 +442,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Сантехник, электрик</t>
+          <t>Экономист 1 категории</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/santehnik-32097985.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-1-kategorii-32112771.html</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -469,17 +465,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Техник-электрик</t>
+          <t>Экономист по планированию производства / Аналитик</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-32499248.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-planirovaniyu-proizvodstva-32469328.html</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>52200</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -492,17 +488,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист по труду и заработной плате (экономист)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32062203.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-trudu-i-zarabotnoj-plate-29003729.html</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -515,17 +511,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Ведущий экономист / Экономист</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-32492391.html</t>
+          <t>http://www.superjob.ru/vakansii/veduschij-ekonomist-31994901.html</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -538,17 +534,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист по материально-техническому снабжению</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32353599.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-materialno-tehnicheskomu-snabzheniyu-32468295.html</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>44300</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -561,24 +557,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Инженер-электрик (испытания и измерения)</t>
+          <t>Менеджер-экономист РО</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-30112453.html</t>
+          <t>http://www.superjob.ru/vakansii/menedzher-ekonomist-ro-32407325.html</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>65000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -588,17 +580,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Дежурный электрик, электрик</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/dezhurnyj-elektrik-32498554.html</t>
+          <t>http://www.superjob.ru/vakansii/veduschij-ekonomist-32364367.html</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -611,17 +603,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Слесарь-электрик</t>
+          <t>Экономист, специалист</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/slesar-elektrik-31881041.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32496477.html</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -634,17 +626,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист (договорной отдел)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-31998342.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32458814.html</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>54000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -657,17 +649,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Сантехник-электрик</t>
+          <t>Бухгалтер, экономист, помощник (ассистент) руководителя</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/santehnik-elektrik-32505455.html</t>
+          <t>http://www.superjob.ru/vakansii/buhgalter-32472010.html</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -680,17 +672,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Электромонтажник / Электрик-универсал</t>
+          <t>Экономист-финансист</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektromontazhnik-32041988.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-finansist-30419251.html</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -703,24 +695,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Инженер-электрик (ежедневные выплаты)</t>
+          <t>Бухгалтер-экономист</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-30436273.html</t>
+          <t>http://www.superjob.ru/vakansii/buhgalter-ekonomist-32360776.html</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>85000</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>120000</t>
-        </is>
-      </c>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -730,24 +718,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Мастер на час / Сантехник / Электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/master-na-chas-32152447.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32484101.html</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>120000</t>
-        </is>
-      </c>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -757,24 +741,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Техник (электрик) по эксплуатации зданий</t>
+          <t>Экономист-операционист</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/tehnik-26251717.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-operacionist-29315992.html</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>45000</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -784,17 +764,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Дежурный электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/dezhurnyj-elektrik-31360400.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32528172.html</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -807,17 +787,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Электрик (ЮВАО)</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32274287.html</t>
+          <t>http://www.superjob.ru/vakansii/veduschij-ekonomist-32094507.html</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -830,17 +810,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Сантехник-электрик / Отделочник</t>
+          <t>Экономист-аналитик</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/santehnik-elektrik-32407033.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-analitik-29695176.html</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -853,24 +833,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Инженер-электрик в ПТО</t>
+          <t>Инженер-экономист (планирование производства)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-v-pto-32530223.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-ekonomist-31544791.html</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>70000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -880,20 +856,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Электрик / Электромонтер</t>
+          <t>Экономист супермаркета</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32466628.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-supermarketa-32508127.html</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>55000</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>27000</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29000</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -903,17 +883,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Электрик по ремонту башенных кранов</t>
+          <t>Ведущий экономист по финансовой работе</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-po-remontu-bashennyh-kranov-28660513.html</t>
+          <t>http://www.superjob.ru/vakansii/veduschij-ekonomist-po-finansovoj-rabote-27662057.html</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -926,17 +906,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Электрик, электромонтер, техник по эксплуатации в электролабораторию по испытанию СИЗ</t>
+          <t>Ведущий экономист, экономист (строительные компании)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32375962.html</t>
+          <t>http://www.superjob.ru/vakansii/veduschij-ekonomist-30540669.html</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -949,20 +929,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Электрик в сеть магазинов Декатлон</t>
+          <t>Экономист отдела кадров</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-v-set-magazinov-dekatlon-31264498.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-otdela-kadrov-32463339.html</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>57500</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -972,20 +956,24 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Мастер квартирного ремонта / Электрик</t>
+          <t>Экономист-аналитик</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/master-kvartirnogo-remonta-32038435.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-analitik-30247502.html</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>11500</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -995,12 +983,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Бухгалтер-экономист</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-31177520.html</t>
+          <t>http://www.superjob.ru/vakansii/buhgalter-ekonomist-32157656.html</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1018,17 +1006,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист (декретная должность на 1 год)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-31785077.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-30686185.html</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1041,17 +1029,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Техник-электрик</t>
+          <t>Экономист по раскрытию информации</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-30212631.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-raskrytiyu-informacii-32526581.html</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1064,17 +1052,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист, бухгалтер</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-30132832.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32526575.html</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1087,17 +1075,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Мастер по ремонту (сантехник, электрик)</t>
+          <t>Экономист-расчетчик (услуги)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/master-po-remontu-32111685.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-raschetchik-32526571.html</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1110,17 +1098,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Слесарь-электрик</t>
+          <t>Экономист планово-экономического отдела</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/slesar-elektrik-25931728.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-planovo-ekonomicheskogo-otdela-29679163.html</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1133,17 +1121,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32150429.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32461813.html</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1156,17 +1144,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Электрик / Электромонтер</t>
+          <t>Экономист по труду и заработной плате</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32433354.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-trudu-i-zarabotnoj-plate-32431359.html</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1179,17 +1167,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Отделочник-электрик</t>
+          <t>Экономист отдела экономического сопровождения</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/otdelochnik-elektrik-32033973.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-otdela-ekonomicheskogo-soprovozhdeniya-32498222.html</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>69600</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1202,17 +1190,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист по труду и заработной плате</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-31826473.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-trudu-i-zarabotnoj-plate-32430881.html</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1225,24 +1213,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Электрик стирального оборудования / Помощник</t>
+          <t>Экономист / Финансовый менеджер</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-stiralnogo-oborudovaniya-32154950.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32524959.html</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>79000</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>150000</t>
-        </is>
-      </c>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1252,22 +1236,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Электрик (на строительный объект)</t>
+          <t>Экономист-куратор по сопровождению сельскохозяйственных предприятий</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32527853.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-kurator-po-soprovozhdeniyu-selskohozyajstvennyh-predpriyatij-26048363.html</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>42000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1279,17 +1263,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Электрик / Электромеханик</t>
+          <t>Бухгалтер-экономист</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32467379.html</t>
+          <t>http://www.superjob.ru/vakansii/buhgalter-ekonomist-32523945.html</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1302,20 +1286,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Мастер-универсал (сантехник / электрик)</t>
+          <t>Экономист ПТО</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/master-universal-32150433.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-pto-32523929.html</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1325,20 +1313,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист-аналитик</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32140432.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-analitik-32177627.html</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1348,17 +1340,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Сантехник / Электрик</t>
+          <t>Ведущий экономист финансово-аналитического отдела</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/santehnik-32362086.html</t>
+          <t>http://www.superjob.ru/vakansii/veduschij-ekonomist-finansovo-analiticheskogo-otdela-32400737.html</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1371,17 +1363,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Бухгалтер-экономист</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32051785.html</t>
+          <t>http://www.superjob.ru/vakansii/buhgalter-ekonomist-32490185.html</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1394,20 +1386,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Электрик-монтажник</t>
+          <t>Экономист планово-экономического отдела</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-montazhnik-31708568.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-planovo-ekonomicheskogo-otdela-30347330.html</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1417,12 +1413,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Электрик / Электромонтажник</t>
+          <t>Экономист по ОМС</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-11856166.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-oms-32350848.html</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1430,11 +1426,7 @@
           <t>50000</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1444,17 +1436,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Электрик-сантехник</t>
+          <t>Инженер-экономист</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-santehnik-32408214.html</t>
+          <t>http://www.superjob.ru/vakansii/inzhener-ekonomist-31992548.html</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1467,24 +1459,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Экономист по производственному учёту</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-26340322.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-proizvodstvennomu-uchjotu-29020565.html</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1494,24 +1482,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Электрик, сантехник</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-27239097.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-31190076.html</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1521,20 +1505,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Отделочник-универсал, электрик</t>
+          <t>Экономист (с функцией сопровождения договоров)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/otdelochnik-universal-28012413.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-31475491.html</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1544,24 +1532,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Электрик по обслуживанию мостовых, козловых, башенных и автомобильных кранов</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-po-obsluzhivaniyu-mostovyh-26356659.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-31788506.html</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1571,24 +1555,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Техник-электрик (Лобня)</t>
+          <t>Экономист-аналитик</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-31943117.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-analitik-32426513.html</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>34000</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1598,17 +1578,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Техник-электрик</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-31028081.html</t>
+          <t>http://www.superjob.ru/vakansii/veduschij-ekonomist-32520494.html</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1621,12 +1601,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист финансового отдела</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32401323.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-finansovogo-otdela-32337340.html</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1644,22 +1624,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-30429379.html</t>
+          <t>http://www.superjob.ru/vakansii/veduschij-ekonomist-32519758.html</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1671,17 +1651,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Электрик (м. Митино)</t>
+          <t>Старший экономист (производство)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32351870.html</t>
+          <t>http://www.superjob.ru/vakansii/starshij-ekonomist-32117682.html</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>39150</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -1694,17 +1674,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-32405892.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32425158.html</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -1717,20 +1697,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32489396.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32455282.html</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1740,20 +1724,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист по договорной и претензионной работе</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-29754708.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-dogovornoj-i-pretenzionnoj-rabote-32367034.html</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>36700</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1763,24 +1751,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Ведущий экономист планово-экономического отдела</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32521685.html</t>
+          <t>http://www.superjob.ru/vakansii/veduschij-ekonomist-planovo-ekonomicheskogo-otdela-32077669.html</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1790,17 +1774,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Автослесарь-электрик</t>
+          <t>Экономист планово-координационного бюро</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/avtoslesar-elektrik-32211284.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-planovo-koordinacionnogo-byuro-32488732.html</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>47850</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -1813,20 +1797,24 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Дежурный электрик (Сколково)</t>
+          <t>Экономист-аналитик отдела маркетинга</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/dezhurnyj-elektrik-32520876.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-analitik-otdela-marketinga-32483442.html</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>35000</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1836,20 +1824,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Электрик ЖКХ (Чертаново)</t>
+          <t>Начальник ПЭО / Ведущий экономист</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-zhkh-32348685.html</t>
+          <t>http://www.superjob.ru/vakansii/nachalnik-peo-32301767.html</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1859,12 +1851,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Электрик (на строительную площадку)</t>
+          <t>Экономист в сфере государственных закупок</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32487377.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-v-sfere-gosudarstvennyh-zakupok-30750654.html</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1882,12 +1874,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Электрик-сантехник</t>
+          <t>Экономист планового отдела</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-santehnik-32487270.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-planovogo-otdela-32061714.html</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1905,24 +1897,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Электрик, электромонтер</t>
+          <t>Экономист по труду и заработной плате</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-24889985.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-trudu-i-zarabotnoj-plate-32061693.html</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>35000</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>38000</t>
-        </is>
-      </c>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1932,24 +1920,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Экономист по труду и заработной плате</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-32363027.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-po-trudu-i-zarabotnoj-plate-28755268.html</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>70000</t>
-        </is>
-      </c>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1959,24 +1943,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист (специалист по торгам)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-31818258.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-28402041.html</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>36000</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>40000</t>
-        </is>
-      </c>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -1986,22 +1966,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Электромонтажник / Электрик</t>
+          <t>Бухгалтер-экономист</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektromontazhnik-32125314.html</t>
+          <t>http://www.superjob.ru/vakansii/buhgalter-ekonomist-32208856.html</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2013,24 +1993,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист (управленческий учет)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-31593898.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32482864.html</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>35000</t>
-        </is>
-      </c>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2040,22 +2016,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Слесарь-электрик по ремонту электрооборудования (депо Нахабино)</t>
+          <t>Экономист / Менеджер по продажам (без поиска)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/slesar-elektrik-po-remontu-elektrooborudovaniya-32424885.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32448503.html</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2067,24 +2043,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Слесарь-электрик по ремонту электрооборудования</t>
+          <t>Экономист планово-экономического отдела</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/slesar-elektrik-po-remontu-elektrooborudovaniya-32518692.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-planovo-ekonomicheskogo-otdela-31728905.html</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2094,24 +2066,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Электрик, электромонтер</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32442629.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-31500264.html</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>55000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2121,17 +2089,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Электрик компрессорного цеха</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-kompressornogo-ceha-31798747.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32479539.html</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2144,17 +2112,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Техник-электрик по эксплуатации (разъездной)</t>
+          <t>Бухгалтер-экономист / Инспектор в отдел камеральных проверок юридических лиц</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-po-ekspluatacii-29942376.html</t>
+          <t>http://www.superjob.ru/vakansii/buhgalter-ekonomist-32415508.html</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -2167,17 +2135,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Бухгалтер / Экономист по расчету квартплаты (расчётчик ЖКХ)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32399179.html</t>
+          <t>http://www.superjob.ru/vakansii/buhgalter-30651740.html</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -2190,24 +2158,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Техник-электрик (м. шоссе Энтузиастов)</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/tehnik-elektrik-29854860.html</t>
+          <t>http://www.superjob.ru/vakansii/veduschij-ekonomist-32238100.html</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>35000</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>40000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2217,17 +2181,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист-аналитик</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32324223.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-analitik-32504112.html</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>75000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -2240,17 +2204,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Электрик-универсал / Техник-электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-universal-32433126.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-27854027.html</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -2263,12 +2227,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Электрик / Электромонтер</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-31444604.html</t>
+          <t>http://www.superjob.ru/vakansii/veduschij-ekonomist-30385319.html</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2278,7 +2242,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2290,17 +2254,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Инженер КИПиА, электрик</t>
+          <t>Бухгалтер-экономист / Расчетчик</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-kipia-30772556.html</t>
+          <t>http://www.superjob.ru/vakansii/buhgalter-ekonomist-31230250.html</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -2313,24 +2277,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Электромеханик, электрик, электромонтер на пищевое производство (г. Люберцы)</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektromehanik-12228202.html</t>
+          <t>http://www.superjob.ru/vakansii/ekonomist-32455523.html</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>55000</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>79000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2340,17 +2300,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Электромеханик / Электрик / Слесарь-механик</t>
+          <t>Финансовый менеджер</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektromehanik-29190567.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-31316444.html</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -2363,17 +2323,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Электромонтажник слаботочных систем / Электрик</t>
+          <t>Финансовый менеджер (м. Полежаевская)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektromontazhnik-slabotochnyh-sistem-31776214.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-31334532.html</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>50500</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -2386,24 +2346,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Электрик (служба эксплуатации)</t>
+          <t>Финансовый менеджер (м. Профсоюзная)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-29436076.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-30965361.html</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
+          <t>50500</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2413,22 +2369,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Финансовый менеджер</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-32448893.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-32477423.html</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2440,20 +2396,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Финансовый менеджер</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-28744775.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-29964372.html</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2463,17 +2423,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Инженер, электрик, проектировщик</t>
+          <t>Финансовый аналитик (отдел экономического моделирования)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-32307207.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-analitik-31996190.html</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -2486,17 +2446,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Инженер-электрик (обслуживание энергооборудования)</t>
+          <t>Начальник отдела экономического анализа</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/inzhener-elektrik-32416851.html</t>
+          <t>http://www.superjob.ru/vakansii/nachalnik-otdela-ekonomicheskogo-analiza-32275591.html</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -2509,17 +2469,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Электрик, электромонтер, электромонтажник</t>
+          <t>Финансовый менеджер</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32509118.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-32527497.html</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -2532,17 +2492,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Финансовый менеджер</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-32144340.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-31131027.html</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>47500</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -2555,20 +2515,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Электрик, электромонтер</t>
+          <t>Финансовый менеджер</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-30681524.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-30638156.html</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>44000</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2578,17 +2542,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Финансовый аналитик / Специалист по внутреннему контролю</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-28186244.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-analitik-32441007.html</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -2601,17 +2565,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Электрик с функциями сантехника по обслуживанию БЦ</t>
+          <t>Финансовый аналитик</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-s-funkciyami-santehnika-po-obsluzhivaniyu-bc-30926658.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-analitik-32421826.html</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -2624,12 +2588,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Электрик на своей машине</t>
+          <t>Финансовый менеджер (м. Пражская)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-na-svoej-mashine-31310335.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-32403288.html</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2647,24 +2611,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Электромонтажник, электрик, электромонтер</t>
+          <t>Финансовый менеджер</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektromontazhnik-28166022.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-32444210.html</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>120000</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>150000</t>
-        </is>
-      </c>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2674,17 +2634,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Электрик, электромонтер (Одинцово)</t>
+          <t>Финансовый менеджер</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-31796722.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-32424336.html</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -2697,17 +2657,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Финансовый менеджер</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektrik-28625752.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-29644001.html</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -2720,17 +2680,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Рабочий по ремонту и обслуживанию зданий (электрик)</t>
+          <t>Финансовый менеджер (ПЭО)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/rabochij-po-remontu-i-obsluzhivaniyu-zdanij-32460551.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-32465762.html</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -2743,17 +2703,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Электромонтер</t>
+          <t>Финансовый аналитик (директор)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektromonter-31987608.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-analitik-29044248.html</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -2766,24 +2726,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Электромеханик (м. Тропарево)</t>
+          <t>Финансовый менеджер</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektromehanik-32462204.html</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-31849780.html</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>38000</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>47000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2793,12 +2749,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Электромонтажник-сварщик</t>
+          <t>Специалист планово-экономического отдела</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.superjob.ru/vakansii/elektromontazhnik-svarschik-31707611.html</t>
+          <t>http://www.superjob.ru/vakansii/specialist-planovo-ekonomicheskogo-otdela-32209126.html</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2806,11 +2762,7 @@
           <t>50000</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>SuperJob</t>
@@ -2820,35 +2772,35 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Техник-электрик</t>
+          <t>Финансовый менеджер</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32953910?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-32513552.html</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>47850</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>HH</t>
+          <t>SuperJob</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Инженер-электрик (технический надзор)</t>
+          <t>Финансовый менеджер по работе с банком</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33044782?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>http://www.superjob.ru/vakansii/finansovyj-menedzher-po-rabote-s-bankom-32466536.html</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2859,19 +2811,19 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>HH</t>
+          <t>SuperJob</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Монтажник - электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32884204?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33194513?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2881,7 +2833,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -2893,17 +2845,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Дежурный электрик</t>
+          <t>Экономист-аналитик</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33192797?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33506631?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -2916,22 +2868,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Монтажник электрик</t>
+          <t>Экономист по бюджетированию</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32971052?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33180592?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -2943,17 +2895,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Электрик (электромонтажник) старший</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33415956?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33134034?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -2966,22 +2918,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33519472?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32782085?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>57000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>57000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -2993,22 +2945,18 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Инженер-электрик в ЖК Лайнер</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33181147?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>74700</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33495475?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>74700</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3020,22 +2968,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33007995?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33202285?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>56000</t>
+          <t>52000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>61000</t>
+          <t>62000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3047,24 +2995,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Финансовый аналитик</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33393725?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33529474?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>65000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3074,24 +3018,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Ведущий экономист-аналитик в Планово-экономический отдел</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33495674?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33207433?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>70000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3101,17 +3041,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Электрик загородного дома</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33504836?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33524015?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -3124,22 +3064,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33199396?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33186346?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>47000</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>47000</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3151,17 +3091,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Дежурный электрик в генподрядную организацию</t>
+          <t>Экономист/ Специалист казначейства</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33300938?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33526360?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -3174,17 +3114,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Техник-электрик</t>
+          <t>Экономист/Экономист по производству</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33033916?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33536722?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -3197,24 +3137,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Экономист (ГОСОБОРОНЗАКАЗ)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33509452?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33324555?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>70000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3224,24 +3160,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Заместитель начальника планово-экономического отдела (Главный экономист)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33479834?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33433323?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3251,17 +3183,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33492616?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32783541?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -3274,20 +3206,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Главный инженер проекта по электрике</t>
+          <t>Финансист-экономист</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33233217?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32976137?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>110000</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3297,20 +3233,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Производитель работ (электрика)</t>
+          <t>Младший экономист</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33419125?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33287582?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>70000</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3320,20 +3260,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Электромонтажник слаботочных систем/Электрик</t>
+          <t>Финансовый менеджер / Экономист</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33325261?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33189019?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>45000</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3343,17 +3287,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист-аналитик</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/30184606?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33420461?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -3366,18 +3310,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Электрик (вахта)</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33531356?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33508064?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>42000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3389,22 +3337,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Электрик (на строительный объект)</t>
+          <t>Экономист/Ведущий экономист</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33505607?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33479743?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3416,24 +3364,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Помощник - электрик монтажника холодильных камер</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33192699?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32822554?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3443,20 +3387,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Прораб по электрике</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33308720?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33474268?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>70000</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3466,22 +3414,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Слесарь-электрик</t>
+          <t>Специалист / Экономист-аналитик</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33235003?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33301477?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3493,24 +3441,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Техник по ремонту оборудования</t>
+          <t>Помощник экономиста</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33510947?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33131747?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3520,20 +3464,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Техник-электрик</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32642816?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33153212?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3543,12 +3487,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Техник-электрик</t>
+          <t>Экономист отдела ВЭД</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33499036?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33348790?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3566,18 +3510,18 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист-финансист</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33278264?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33307924?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3589,17 +3533,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Коструктор-электрик</t>
+          <t>Ведущий экономист казначейства</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33007802?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33055914?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -3612,24 +3556,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Главный энергетик</t>
+          <t>Экономист финансового отдела</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33517353?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33201296?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>90000</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>90000</t>
-        </is>
-      </c>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3639,24 +3579,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33057231?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32994430?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>35000</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>35000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3666,17 +3602,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Мастер по ремонту квартир (внутренняя отделка)</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33227446?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33289589?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>110000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -3689,24 +3625,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32946449?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32374337?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>35000</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>46000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3716,17 +3648,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Ведущий экономист по ГОЗ</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33465289?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32873076?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -3739,20 +3671,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Инженер-управляющий в многоквартирный дом</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33522130?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33465404?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3762,22 +3698,18 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33393427?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>65000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/32793657?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3789,18 +3721,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Дежурный электрик</t>
+          <t>Экономист в ПЭО</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33223287?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33506021?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>67000</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3812,17 +3748,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Техник-электрик</t>
+          <t>Ведущий экономист по страхованию</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33488234?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33502020?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>82000</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -3835,12 +3771,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Слесарь-электрик по ремонту и обслуживанию трамвайных вагонов</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33508443?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33489031?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3848,7 +3784,11 @@
           <t>60000</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3858,20 +3798,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Техник-электрик</t>
+          <t>Главный экономист по бюджетированию</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33493983?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33486068?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3881,12 +3821,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Сотрудник технической службы по эксплуатации здания</t>
+          <t>Экономист-аналитик</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33408057?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33502846?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3904,20 +3844,24 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Электрик в фитнес-клуб</t>
+          <t>Финансист-экономист</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33520556?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33396317?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
           <t>HH</t>
@@ -3927,22 +3871,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Специалист по ремонту холодильного оборудования / Электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32512116?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33486711?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -3954,17 +3898,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Бригадир электромонтажников</t>
+          <t>Экономист в строительстве</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33199936?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33509157?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -3977,20 +3921,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Техник-электрик по ремонту подвижного состава</t>
+          <t>Экономист финансового отдела</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33289578?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33428924?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4000,24 +3948,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Инженер электрик</t>
+          <t>Экономист финансового управления по бюджету</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33026367?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/30958794?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>65000</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>65000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4027,24 +3971,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Электрик (ТЦ "АРЕАЛ" м.Алтуфьево)</t>
+          <t>Экономист по фининсовой работе</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33125208?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33537377?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>45000</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4054,24 +3994,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Техник-электрик</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33334945?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33101772?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4081,20 +4017,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Электрик / Электромеханик</t>
+          <t>Помощник заместителя директора по экономике и финансам</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33247587?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33502523?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4104,20 +4040,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Производитель электромонтажных работ</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33447500?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33283120?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>70000</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4127,22 +4067,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Электрик в автосалон / специалист по обслуживанию зданий</t>
+          <t>Экономист планового отдела</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33120702?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33506360?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4154,20 +4094,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Техник по эксплуатации здания (электрик)</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33520157?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>33600</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/30648264?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>73800</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4177,22 +4117,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Электромонтажник</t>
+          <t>Бухгалтер-экономист (г. Москва)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33299771?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33053781?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4204,17 +4144,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Электрик (электрослесарь, техник)</t>
+          <t>Финансовый менеджер/экономист</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33452310?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33354746?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -4227,24 +4167,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Электрик по зданию (м. Коломенское)</t>
+          <t>Ведущий экономист по договорной работе</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32390342?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32482358?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>30000</t>
-        </is>
-      </c>
+          <t>82790</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4254,22 +4190,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Автоэлектрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33404370?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33175219?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4281,17 +4217,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Инженер-электрик (энергетик)</t>
+          <t>Ведущий экономист в планово-экономический отдел</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32615580?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33457765?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -4304,20 +4240,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Бухгалтер-экономист</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33464122?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33359593?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4327,24 +4267,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Инженер-электрик (Сколково)</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33492604?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33024360?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>85000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4354,24 +4290,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Монтажник/электрик-слаботочник</t>
+          <t>Старший экономист</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33088685?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33511078?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>75000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4381,20 +4313,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Электромонтажник</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32667315?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33495911?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4404,24 +4336,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Экономист по труду и заработной плате</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33304123?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32648578?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>20000</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>22000</t>
-        </is>
-      </c>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4431,17 +4359,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Электрик/Техник по обслуживанию зданий</t>
+          <t>Ведущий экономист планово-экономического отдела</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33054757?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33237683?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>43980</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -4454,18 +4382,18 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Сборщик электромонтажник</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33077566?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33322714?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>75000</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4477,22 +4405,18 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Электрик-электромонтажник</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33333025?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>35000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/31528740?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4504,17 +4428,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Инженер технического надзора по электроснабжению, инженер-электрик</t>
+          <t>Младший экономист-финансист</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/31615170?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33450212?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -4527,22 +4451,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Автоэлектрик - диагност / электрик</t>
+          <t>Ассистент внутреннего аудитора / экономист</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33124612?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33522218?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>50000</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>70000</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4554,17 +4478,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Главный инженер по эксплуатации зданий</t>
+          <t>Экономист в финансовом отделе сервисной службы</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33459434?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33016993?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -4577,20 +4501,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Сервисный инженер</t>
+          <t>Экономист проекта</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33424557?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33489204?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4600,20 +4528,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Техник по эксплуатации здания</t>
+          <t>Экономист-аналитик</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33503680?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>37000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33461760?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4623,22 +4551,22 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Инженер электрик/Инженер КИПиА/Электромонтер</t>
+          <t>Экономист-финансист</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33394763?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33039832?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4650,20 +4578,24 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Слесарь-электрик</t>
+          <t>Экономист по планированию и анализу финансово-хозяйственной деятельности</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33531379?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33296071?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>35000</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4673,22 +4605,18 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Электротехник спортивно-развлекательного центра</t>
+          <t>Бухгалтер-экономист</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33464898?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>44000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33326062?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>44000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4700,22 +4628,22 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Техник по эксплуатации</t>
+          <t>Экономист / финансовый менеджер</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33348898?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33504510?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4727,12 +4655,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Ведущий экономист</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33453082?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33497108?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4750,17 +4678,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33456982?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33483390?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -4773,20 +4701,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Техник по эксплуатации и ремонту оборудования</t>
+          <t>Старший экономист финансово-экономического отдела</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33463605?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>65000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33330212?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4796,20 +4724,24 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Слесарь-электрик по ремонту электрооборудования (7 разряд)</t>
+          <t>Экономист-бухгалтер</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33042243?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33529687?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4819,12 +4751,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Слесарь-электрик по ремонту электрооборудования (8 разряд)</t>
+          <t>Бухгалтер-экономист</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33042655?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33224802?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4832,7 +4764,11 @@
           <t>40000</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4842,22 +4778,22 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Техник по эксплуатации зданий/хаусмастер</t>
+          <t>Помощник экономиста</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33521217?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33385957?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -4869,24 +4805,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Автоэлектрик-диагност</t>
+          <t>Главный экономист по ценообразованию</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33443301?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33494240?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>90000</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>140000</t>
-        </is>
-      </c>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4896,20 +4828,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Слесарь-электрик по ремонту электрооборудования (5 разряд)</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32907296?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33490658?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
           <t>HH</t>
@@ -4919,17 +4851,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Электромонтажник</t>
+          <t>Экономист планово-экономического отдела</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33489980?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33483167?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
@@ -4942,12 +4874,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Электромонтер по ремонту и обслуживанию электрооборудования (6 разряда)</t>
+          <t>Производственный экономист</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33487987?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/31857397?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4965,17 +4897,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Техник по эксплуатации и ремонту здания</t>
+          <t>Ведущий экономист в компанию по управлению жилой недвижимостью</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33506737?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32973285?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
@@ -4988,24 +4920,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+          <t>Экономист планового-экономического управления</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33262088?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33478631?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>40000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
           <t>HH</t>
@@ -5015,20 +4943,24 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Инженер-электрик</t>
+          <t>Ведущий экономист в г. Симферополь</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33361951?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32313312?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>55000</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>HH</t>
@@ -5038,17 +4970,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Специалист по эксплуатации помещений</t>
+          <t>Экономист-аналитик ( логистика)</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33133739?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32035293?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -5061,24 +4993,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Сервисный инженер</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33236316?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/31465648?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>65000</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>120000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
           <t>HH</t>
@@ -5088,24 +5016,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Техник по эксплуатации</t>
+          <t>Экономист ПЭО</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/30751332?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33408947?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>41760</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>41760</t>
-        </is>
-      </c>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
           <t>HH</t>
@@ -5115,24 +5039,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Дежурный электрик (2/2)</t>
+          <t>Ведущий экономист ПЭО</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32484189?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32589713?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>35000</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>35000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
           <t>HH</t>
@@ -5142,20 +5062,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Электрик</t>
+          <t>Ведущий экономист/Руководитель экономической службы объекта</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33336127?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>42500</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/32929631?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
           <t>HH</t>
@@ -5165,17 +5085,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Рабочий по обслуживанию зданий и сооружений</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33412295?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/32937286?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -5188,24 +5108,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Диагност-электрик</t>
+          <t>Менеджер по планированию производства/экономист планово-финансового отдела</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33511088?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33453326?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>70000</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>130000</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
           <t>HH</t>
@@ -5215,20 +5131,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Электромонтажник</t>
+          <t>Менеджер-экономист</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33514597?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33300950?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>HH</t>
@@ -5238,17 +5154,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Проектный менеджер</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33280493?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33485894?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -5261,25 +5177,1999 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Монтажник (монтировщик)</t>
+          <t>Экономист</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33160974?query=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D0%BA</t>
+          <t>https://hh.ru/vacancy/33481785?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>42000</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Специалист по документообороту/ экономист</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33476880?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Ведущий экономист в планово-экономический отдел</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33507007?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Бухгалтер-экономист</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33498352?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Экономист отдела бюджетирования и управленческой отчетности</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/31690639?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Экономист управленческого учёта</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33177176?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Ведущий экономист (казначейство)</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32788927?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Ведущий экономист</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33378638?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Ведущий экономист</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33505666?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Младший экономист</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33496885?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Специалист по управленческому отчету / экономист</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33521827?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Экономист планово-экономического отдела</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32813215?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Экономист-финансист</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33477958?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Финансовый менеджер / Экономист</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32858366?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Экономист-аналитик</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33222346?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Экономист-менеджер по выдаче займов (г. Москва)</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33501056?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Экономист по контролю цен и закупок</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33053607?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Главный экономист (управленческий учет ЗПИФН)</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33056903?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Старший экономист</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/23213205?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Финансист-экономист</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33444286?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32793630?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Ведущий экономист</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32808123?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33481267?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>БУХГАЛТЕР-ЭКОНОМИСТ (БЮДЖЕТНЫЙ УЧЁТ В КУЛЬТУРНОЙ СФЕРЕ) (м.Кропоткинская)</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33488201?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Экономист (авиабилеты, клиенты)</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32670546?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Ведущий специалист-эксперт (экономист)</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32191312?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>17000</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Старший финансовый специалист / старший экономист</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32785620?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Менеджер – экономист РО</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32712269?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Бухгалтер-экономист</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33402581?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Сметчик-экономист</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33275800?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Экономист управления планирования затрат</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33403682?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Экономист/финансовый менеджер</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33069605?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Экономист ЖКХ</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33267760?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
         <is>
           <t>80000</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Главный экономист</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32993140?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Экономист отдела бюджетирования</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33349239?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Экономист по договорной работе/ руководитель экономического отдела (строительная организация)</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33465103?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Главный экономист (КИБ)</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32551433?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32969847?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Экономист ИБЦ Казначейства</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32795819?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32765902?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Бухгалтер-экономист</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33460429?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Экономист-маркетолог</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33274899?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Ведущий экономист</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33457475?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32868833?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Специалист по оплате платежей</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33531628?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>43500</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Экономист по начислениям за услуги ЖКХ</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33351532?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Помощник экономиста</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33249676?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Экономист отдела расчетов</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32667587?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Экономист по бюджету( HR)</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33125924?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Ведущий экономист ПЭО (производственная программа).</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32767227?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Бухгалтер-экономист</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33335163?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Бухгалтер-экономист</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33504587?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Финансовый Бизнес-Контролер</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33295227?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32966154?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Бухгалтер-экономист</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33138460?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>53000</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>53000</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Главный бухгалтер / Экономист</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32971573?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Финансовый менеджер / Экономист / Бухгалтер</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33345186?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32894118?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Экономист по планированию</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32426651?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Аналитик-экономист</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/31160082?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Финансовый менеджер / экономист</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33479518?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Экономист по ценообразованию</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32947478?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Бухгалтер в единственном лице</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33155769?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Ведущий экономист в Управление по экономике</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33197209?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Экономист казначейства</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33334678?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Экономист (договорной отдел)</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32081728?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>54000</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Главный экономист отдела труда и заработной платы</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32260899?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Инженер-экономист</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32938747?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33463684?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Бухгалтер-экономист</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33162954?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>65000</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Бухгалтер - экономист</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33128727?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33258775?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Финансовый менеджер</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32584640?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Финансовый менеджер</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33516468?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Экономист в Управление по экономике</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33197309?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Ведущий экономист</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33459166?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33436104?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Главный экономист (Отдел управленческой отчетности)</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33023977?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/32986854?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Ведущий экономист</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33462409?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33463390?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Экономист</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33465146?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Бухгалтер-операционист / Экономист</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/33173737?query=%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%81%D1%82</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
         <is>
           <t>HH</t>
         </is>
